--- a/resultados_matematica_a.xlsx
+++ b/resultados_matematica_a.xlsx
@@ -22,241 +22,241 @@
     <t>INSCRITOS</t>
   </si>
   <si>
-    <t>SI_MA</t>
-  </si>
-  <si>
-    <t>NO_MA</t>
-  </si>
-  <si>
-    <t>PUNTAJE_TOTAL_PROMEDIO</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_DE_LOGRO_PROMEDIO</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_EJE_1</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_EJE_2</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_EJE_3</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_EJE_4</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_1</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_2</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_3</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_4</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_5</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_6</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_7</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_8</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_9</t>
-  </si>
-  <si>
-    <t>PUNTAJE_TOTAL_PROMEDIO_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_LOGRO_PROMEDIO_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_EJE_1_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_EJE_2_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_EJE_3_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_EJE_4_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_1_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_2_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_3_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_4_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_5_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_6_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_7_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_8_USACH</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_9_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PUNTAJE_TOTAL_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PORCENTAJE_DE_LOGRO_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_EJE_1_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_EJE_2_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_EJE_3_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_EJE_4_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_OBJ_1_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_OBJ_2_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_OBJ_3_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_OBJ_4_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_OBJ_5_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_OBJ_6_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_OBJ_7_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_OBJ_8_USACH</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_OBJ_9_USACH</t>
-  </si>
-  <si>
-    <t>PUNTAJE_TOTAL_PROMEDIO_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_DE_LOGRO_PROMEDIO_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_EJE_1_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_EJE_2_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_EJE_3_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_EJE_4_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_1_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_2_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_3_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_4_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_5_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_6_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_7_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_8_FAC</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_PROMEDIO_OBJ_9_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PUNTAJE_TOTAL_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PORCENTAJE_DE_LOGRO_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_EJE_1_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_EJE_2_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_EJE_3_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_EJE_4_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_OBJ_1_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_OBJ_2_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_OBJ_3_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_OBJ_4_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_OBJ_5_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_OBJ_6_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_OBJ_7_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_OBJ_8_FAC</t>
-  </si>
-  <si>
-    <t>DIFERENCIA_PROMEDIO_OBJ_9_FAC</t>
-  </si>
-  <si>
-    <t>ESTUDIANTES_CON_PUNTAJE_BAJO</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_ESTUDIANTES_CON_PUNTAJE_BAJO</t>
+    <t>SI MA</t>
+  </si>
+  <si>
+    <t>NO MA</t>
+  </si>
+  <si>
+    <t>PUNTAJE TOTAL PROMEDIO</t>
+  </si>
+  <si>
+    <t>PORCENTAJE DE LOGRO PROMEDIO</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO EJE 1</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO EJE 2</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO EJE 3</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO EJE 4</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 1</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 2</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 3</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 4</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 5</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 6</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 7</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 8</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 9</t>
+  </si>
+  <si>
+    <t>PUNTAJE TOTAL PROMEDIO USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE LOGRO PROMEDIO USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO EJE 1 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO EJE 2 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO EJE 3 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO EJE 4 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 1 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 2 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 3 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 4 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 5 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 6 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 7 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 8 USACH</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 9 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PUNTAJE TOTAL USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PORCENTAJE DE LOGRO USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO EJE 1 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO EJE 2 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO EJE 3 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO EJE 4 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO OBJ 1 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO OBJ 2 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO OBJ 3 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO OBJ 4 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO OBJ 5 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO OBJ 6 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO OBJ 7 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO OBJ 8 USACH</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO OBJ 9 USACH</t>
+  </si>
+  <si>
+    <t>PUNTAJE TOTAL PROMEDIO FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE DE LOGRO PROMEDIO FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO EJE 1 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO EJE 2 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO EJE 3 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO EJE 4 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 1 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 2 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 3 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 4 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 5 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 6 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 7 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 8 FACULTAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE PROMEDIO OBJ 9 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PUNTAJE TOTAL FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PORCENTAJE DE LOGRO FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO EJE 1 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO EJE 2 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO EJE 3 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO EJE 4 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO OBJ 1 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO OBJ 2 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO OBJ 3 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO OBJ 4 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO OBJ 5 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO OBJ 6 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO OBJ 7 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO OBJ 8 FACULTAD</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROMEDIO OBJ 9 FACULTAD</t>
+  </si>
+  <si>
+    <t>ESTUDIANTES CON PUNTAJE BAJO</t>
+  </si>
+  <si>
+    <t>PORCENTAJE ESTUDIANTES CON PUNTAJE BAJO</t>
   </si>
   <si>
     <t>CARRERA</t>
